--- a/dummy dataset.xlsx
+++ b/dummy dataset.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Vendor A" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>Y0</t>
   </si>
@@ -40,12 +40,6 @@
     <t>Y3</t>
   </si>
   <si>
-    <t>Y4</t>
-  </si>
-  <si>
-    <t>Y5</t>
-  </si>
-  <si>
     <t>TCO Component</t>
   </si>
   <si>
@@ -55,7 +49,7 @@
     <t>Software</t>
   </si>
   <si>
-    <t>5Y TOTAL (USD)</t>
+    <t>3Y TOTAL (USD)</t>
   </si>
 </sst>
 </file>
@@ -374,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -385,17 +379,17 @@
     <col min="1" max="1" width="14.6328125" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:10" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:10" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="3:10" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="3:10" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="3:10" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:8" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:8" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="3:8" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="3:8" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="3:8" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
@@ -410,18 +404,12 @@
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1">
         <v>14200</v>
@@ -436,19 +424,13 @@
         <v>15500</v>
       </c>
       <c r="H7" s="1">
-        <v>17000</v>
-      </c>
-      <c r="I7" s="1">
-        <v>16700</v>
-      </c>
-      <c r="J7" s="1">
-        <f>SUM(D7:I7)</f>
-        <v>95500</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.35">
+        <f>SUM(D7:G7)</f>
+        <v>61800</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1">
         <v>20500</v>
@@ -463,33 +445,23 @@
         <v>22300</v>
       </c>
       <c r="H8" s="1">
-        <v>20700</v>
-      </c>
-      <c r="I8" s="1">
-        <v>21500</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" ref="J8:J10" si="0">SUM(D8:I8)</f>
-        <v>125800</v>
-      </c>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.35">
+        <f>SUM(D8:G8)</f>
+        <v>83600</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -498,10 +470,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="A4:I5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -509,9 +481,9 @@
     <col min="1" max="1" width="14.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -526,18 +498,12 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>13600</v>
@@ -552,19 +518,13 @@
         <v>15400</v>
       </c>
       <c r="F2" s="1">
-        <v>15800</v>
-      </c>
-      <c r="G2" s="1">
-        <v>16300</v>
-      </c>
-      <c r="H2" s="1">
-        <f>SUM(B2:G2)</f>
-        <v>90200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <f>SUM(B2:E2)</f>
+        <v>58100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>19300</v>
@@ -579,33 +539,23 @@
         <v>20600</v>
       </c>
       <c r="F3" s="1">
-        <v>21400</v>
-      </c>
-      <c r="G3" s="1">
-        <v>20900</v>
-      </c>
-      <c r="H3" s="1">
-        <f t="shared" ref="H3:H5" si="0">SUM(B3:G3)</f>
-        <v>122100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <f>SUM(B3:E3)</f>
+        <v>79800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -614,22 +564,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:J10"/>
+  <dimension ref="C6:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
@@ -644,18 +594,12 @@
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1">
         <v>14200</v>
@@ -670,19 +614,13 @@
         <v>16100</v>
       </c>
       <c r="H7" s="1">
-        <v>16800</v>
-      </c>
-      <c r="I7" s="1">
-        <v>17200</v>
-      </c>
-      <c r="J7" s="1">
-        <f>SUM(D7:I7)</f>
-        <v>94800</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.35">
+        <f>SUM(D7:G7)</f>
+        <v>60800</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1">
         <v>20300</v>
@@ -697,33 +635,23 @@
         <v>22100</v>
       </c>
       <c r="H8" s="1">
-        <v>22600</v>
-      </c>
-      <c r="I8" s="1">
-        <v>23000</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" ref="J8:J10" si="0">SUM(D8:I8)</f>
-        <v>130500</v>
-      </c>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.35">
+        <f>SUM(D8:G8)</f>
+        <v>84900</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
